--- a/答辩/2014答辩分组名单(修正版).xlsx
+++ b/答辩/2014答辩分组名单(修正版).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\实验室\毕业论文相关\2014（我）\毕业-2014级-destiny\答辩\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="510" windowWidth="14940" windowHeight="8910"/>
   </bookViews>
@@ -2133,15 +2138,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>3组长：吴威
-唐文忠
-潘俊君
-黄迪
-丁嵘
-秘书：姚燕青</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>4组长：刘超
 郎波
 齐越
@@ -2166,35 +2162,6 @@
 王静远
 李巍
 秘书：李辉勇</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>组长：吕卫锋
-马世龙
-马帅
-冷彪
-吕良双
-秘书：王德庆</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>8组长：陈小武
-张辉
-白跃彬
-栾钟治
-钱红兵
-秘书：周彬</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -2294,44 +2261,6 @@
       </rPr>
       <t>徐红
 秘书：荣文戈</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>14组长：钱德沛
-高小鹏
-杨钦
-吴际
-李波
-秘书：杨海龙</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15组长：马殿富
-胡凯
-王莉莉
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">尚利宏
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>葛声
-秘书：杜博文</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2364,12 +2293,79 @@
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组长：吕卫锋
+马世龙
+马帅
+冷彪
+吕良双
+秘书：刘禹</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15组长：马殿富
+胡凯
+王莉莉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尚利宏
+张力军
+秘书：杜博文</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>8组长：张辉
+白跃彬
+栾钟治
+钱红兵
+徐其志
+秘书：周彬</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>14组长：钱德沛
+高小鹏
+杨钦
+吴际
+李波（小）
+秘书：杨海龙</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3组长：吴威
+唐文忠
+潘俊君
+黄迪
+丁嵘
+秘书：姚燕青</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2471,6 +2467,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2579,7 +2588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2626,6 +2635,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2635,9 +2647,13 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2647,6 +2663,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2695,7 +2714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2730,7 +2749,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2941,19 +2960,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204:C204"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="12.54296875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="19"/>
-    <col min="5" max="5" width="17.453125" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="3" width="12.53125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875" style="19"/>
+    <col min="5" max="5" width="17.46484375" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="8.73046875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>575</v>
       </c>
@@ -2967,7 +2986,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
@@ -2981,7 +3000,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
@@ -2994,7 +3013,7 @@
       <c r="E3" s="27"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>79</v>
       </c>
@@ -3006,7 +3025,7 @@
       </c>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>35</v>
       </c>
@@ -3018,7 +3037,7 @@
       </c>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>111</v>
       </c>
@@ -3030,7 +3049,7 @@
       </c>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>324</v>
       </c>
@@ -3042,7 +3061,7 @@
       </c>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>450</v>
       </c>
@@ -3054,7 +3073,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>483</v>
       </c>
@@ -3066,7 +3085,7 @@
       </c>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>543</v>
       </c>
@@ -3078,7 +3097,7 @@
       </c>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
@@ -3088,11 +3107,11 @@
       <c r="C11" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>426</v>
       </c>
@@ -3104,7 +3123,7 @@
       </c>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>432</v>
       </c>
@@ -3116,7 +3135,7 @@
       </c>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>457</v>
       </c>
@@ -3128,7 +3147,7 @@
       </c>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>459</v>
       </c>
@@ -3140,7 +3159,7 @@
       </c>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>522</v>
       </c>
@@ -3152,7 +3171,7 @@
       </c>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>530</v>
       </c>
@@ -3164,7 +3183,7 @@
       </c>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>539</v>
       </c>
@@ -3176,165 +3195,178 @@
       </c>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="34" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A22" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="35"/>
+    </row>
+    <row r="25" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A27" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A28" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="35"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A29" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="35"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A30" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="D30" s="32"/>
+      <c r="E30" s="35"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A31" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="32"/>
+      <c r="E31" s="36"/>
+    </row>
+    <row r="32" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>108</v>
       </c>
@@ -3345,10 +3377,10 @@
         <v>309</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>107</v>
       </c>
@@ -3360,7 +3392,7 @@
       </c>
       <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>113</v>
       </c>
@@ -3372,7 +3404,7 @@
       </c>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>103</v>
       </c>
@@ -3384,7 +3416,7 @@
       </c>
       <c r="E35" s="24"/>
     </row>
-    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>96</v>
       </c>
@@ -3396,7 +3428,7 @@
       </c>
       <c r="E36" s="24"/>
     </row>
-    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>91</v>
       </c>
@@ -3408,7 +3440,7 @@
       </c>
       <c r="E37" s="24"/>
     </row>
-    <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>70</v>
       </c>
@@ -3420,7 +3452,7 @@
       </c>
       <c r="E38" s="24"/>
     </row>
-    <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>61</v>
       </c>
@@ -3432,7 +3464,7 @@
       </c>
       <c r="E39" s="24"/>
     </row>
-    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>119</v>
       </c>
@@ -3444,7 +3476,7 @@
       </c>
       <c r="E40" s="24"/>
     </row>
-    <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>102</v>
       </c>
@@ -3456,7 +3488,7 @@
       </c>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>94</v>
       </c>
@@ -3468,7 +3500,7 @@
       </c>
       <c r="E42" s="24"/>
     </row>
-    <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>66</v>
       </c>
@@ -3480,7 +3512,7 @@
       </c>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>57</v>
       </c>
@@ -3492,7 +3524,7 @@
       </c>
       <c r="E44" s="25"/>
     </row>
-    <row r="45" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>4</v>
       </c>
@@ -3503,10 +3535,10 @@
         <v>243</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>62</v>
       </c>
@@ -3518,7 +3550,7 @@
       </c>
       <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>22</v>
       </c>
@@ -3530,7 +3562,7 @@
       </c>
       <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>25</v>
       </c>
@@ -3542,7 +3574,7 @@
       </c>
       <c r="E48" s="24"/>
     </row>
-    <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>41</v>
       </c>
@@ -3554,7 +3586,7 @@
       </c>
       <c r="E49" s="24"/>
     </row>
-    <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>21</v>
       </c>
@@ -3566,7 +3598,7 @@
       </c>
       <c r="E50" s="24"/>
     </row>
-    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>31</v>
       </c>
@@ -3578,7 +3610,7 @@
       </c>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>8</v>
       </c>
@@ -3590,7 +3622,7 @@
       </c>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>16</v>
       </c>
@@ -3602,7 +3634,7 @@
       </c>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>109</v>
       </c>
@@ -3614,7 +3646,7 @@
       </c>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>40</v>
       </c>
@@ -3626,7 +3658,7 @@
       </c>
       <c r="E55" s="24"/>
     </row>
-    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>56</v>
       </c>
@@ -3638,7 +3670,7 @@
       </c>
       <c r="E56" s="24"/>
     </row>
-    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>99</v>
       </c>
@@ -3650,7 +3682,7 @@
       </c>
       <c r="E57" s="24"/>
     </row>
-    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>36</v>
       </c>
@@ -3662,7 +3694,7 @@
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>114</v>
       </c>
@@ -3673,10 +3705,10 @@
         <v>298</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>85</v>
       </c>
@@ -3688,7 +3720,7 @@
       </c>
       <c r="E60" s="24"/>
     </row>
-    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
         <v>97</v>
       </c>
@@ -3700,7 +3732,7 @@
       </c>
       <c r="E61" s="24"/>
     </row>
-    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>118</v>
       </c>
@@ -3712,7 +3744,7 @@
       </c>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>1</v>
       </c>
@@ -3724,7 +3756,7 @@
       </c>
       <c r="E63" s="24"/>
     </row>
-    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
         <v>39</v>
       </c>
@@ -3736,7 +3768,7 @@
       </c>
       <c r="E64" s="24"/>
     </row>
-    <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
         <v>115</v>
       </c>
@@ -3748,7 +3780,7 @@
       </c>
       <c r="E65" s="24"/>
     </row>
-    <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>73</v>
       </c>
@@ -3760,7 +3792,7 @@
       </c>
       <c r="E66" s="24"/>
     </row>
-    <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>3</v>
       </c>
@@ -3772,7 +3804,7 @@
       </c>
       <c r="E67" s="24"/>
     </row>
-    <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>14</v>
       </c>
@@ -3784,7 +3816,7 @@
       </c>
       <c r="E68" s="24"/>
     </row>
-    <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>87</v>
       </c>
@@ -3796,7 +3828,7 @@
       </c>
       <c r="E69" s="24"/>
     </row>
-    <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
         <v>43</v>
       </c>
@@ -3808,7 +3840,7 @@
       </c>
       <c r="E70" s="24"/>
     </row>
-    <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
         <v>47</v>
       </c>
@@ -3820,7 +3852,7 @@
       </c>
       <c r="E71" s="25"/>
     </row>
-    <row r="72" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
         <v>110</v>
       </c>
@@ -3830,11 +3862,11 @@
       <c r="C72" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="E72" s="28" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E72" s="29" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
         <v>105</v>
       </c>
@@ -3844,9 +3876,9 @@
       <c r="C73" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E73" s="29"/>
-    </row>
-    <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E73" s="30"/>
+    </row>
+    <row r="74" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>42</v>
       </c>
@@ -3856,9 +3888,9 @@
       <c r="C74" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="29"/>
-    </row>
-    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E74" s="30"/>
+    </row>
+    <row r="75" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
         <v>2</v>
       </c>
@@ -3868,9 +3900,9 @@
       <c r="C75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="29"/>
-    </row>
-    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E75" s="30"/>
+    </row>
+    <row r="76" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>9</v>
       </c>
@@ -3880,9 +3912,9 @@
       <c r="C76" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E76" s="29"/>
-    </row>
-    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>27</v>
       </c>
@@ -3892,9 +3924,9 @@
       <c r="C77" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E77" s="29"/>
-    </row>
-    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E77" s="30"/>
+    </row>
+    <row r="78" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
         <v>77</v>
       </c>
@@ -3904,9 +3936,9 @@
       <c r="C78" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E78" s="29"/>
-    </row>
-    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E78" s="30"/>
+    </row>
+    <row r="79" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>579</v>
       </c>
@@ -3916,9 +3948,9 @@
       <c r="C79" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E79" s="29"/>
-    </row>
-    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E79" s="30"/>
+    </row>
+    <row r="80" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>581</v>
       </c>
@@ -3928,9 +3960,9 @@
       <c r="C80" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E80" s="29"/>
-    </row>
-    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E80" s="30"/>
+    </row>
+    <row r="81" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
         <v>29</v>
       </c>
@@ -3940,9 +3972,9 @@
       <c r="C81" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E81" s="29"/>
-    </row>
-    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E81" s="30"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>71</v>
       </c>
@@ -3952,9 +3984,9 @@
       <c r="C82" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="29"/>
-    </row>
-    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E82" s="30"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
         <v>89</v>
       </c>
@@ -3964,9 +3996,9 @@
       <c r="C83" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E83" s="29"/>
-    </row>
-    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E83" s="30"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
         <v>101</v>
       </c>
@@ -3976,9 +4008,9 @@
       <c r="C84" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E84" s="30"/>
-    </row>
-    <row r="85" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="31"/>
+    </row>
+    <row r="85" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
         <v>51</v>
       </c>
@@ -3989,10 +4021,10 @@
         <v>278</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="s">
         <v>60</v>
       </c>
@@ -4004,7 +4036,7 @@
       </c>
       <c r="E86" s="24"/>
     </row>
-    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
         <v>19</v>
       </c>
@@ -4016,7 +4048,7 @@
       </c>
       <c r="E87" s="24"/>
     </row>
-    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
         <v>72</v>
       </c>
@@ -4028,7 +4060,7 @@
       </c>
       <c r="E88" s="24"/>
     </row>
-    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
         <v>33</v>
       </c>
@@ -4040,7 +4072,7 @@
       </c>
       <c r="E89" s="24"/>
     </row>
-    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
         <v>58</v>
       </c>
@@ -4052,7 +4084,7 @@
       </c>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
         <v>81</v>
       </c>
@@ -4064,7 +4096,7 @@
       </c>
       <c r="E91" s="24"/>
     </row>
-    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
         <v>10</v>
       </c>
@@ -4076,7 +4108,7 @@
       </c>
       <c r="E92" s="24"/>
     </row>
-    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
         <v>92</v>
       </c>
@@ -4088,7 +4120,7 @@
       </c>
       <c r="E93" s="24"/>
     </row>
-    <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
         <v>28</v>
       </c>
@@ -4100,7 +4132,7 @@
       </c>
       <c r="E94" s="24"/>
     </row>
-    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A95" s="17" t="s">
         <v>67</v>
       </c>
@@ -4112,7 +4144,7 @@
       </c>
       <c r="E95" s="24"/>
     </row>
-    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
         <v>49</v>
       </c>
@@ -4124,7 +4156,7 @@
       </c>
       <c r="E96" s="24"/>
     </row>
-    <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>44</v>
       </c>
@@ -4136,7 +4168,7 @@
       </c>
       <c r="E97" s="24"/>
     </row>
-    <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
         <v>11</v>
       </c>
@@ -4148,7 +4180,7 @@
       </c>
       <c r="E98" s="25"/>
     </row>
-    <row r="99" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
         <v>7</v>
       </c>
@@ -4158,11 +4190,11 @@
       <c r="C99" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E99" s="28" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E99" s="29" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
         <v>583</v>
       </c>
@@ -4172,9 +4204,9 @@
       <c r="C100" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E100" s="29"/>
-    </row>
-    <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E100" s="30"/>
+    </row>
+    <row r="101" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>32</v>
       </c>
@@ -4184,9 +4216,9 @@
       <c r="C101" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E101" s="29"/>
-    </row>
-    <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E101" s="30"/>
+    </row>
+    <row r="102" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>5</v>
       </c>
@@ -4196,9 +4228,9 @@
       <c r="C102" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E102" s="29"/>
-    </row>
-    <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E102" s="30"/>
+    </row>
+    <row r="103" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
         <v>30</v>
       </c>
@@ -4208,9 +4240,9 @@
       <c r="C103" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E103" s="29"/>
-    </row>
-    <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E103" s="30"/>
+    </row>
+    <row r="104" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
         <v>95</v>
       </c>
@@ -4220,9 +4252,9 @@
       <c r="C104" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E104" s="29"/>
-    </row>
-    <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E104" s="30"/>
+    </row>
+    <row r="105" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
         <v>48</v>
       </c>
@@ -4232,9 +4264,9 @@
       <c r="C105" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E105" s="29"/>
-    </row>
-    <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E105" s="30"/>
+    </row>
+    <row r="106" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
         <v>53</v>
       </c>
@@ -4244,9 +4276,9 @@
       <c r="C106" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E106" s="29"/>
-    </row>
-    <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E106" s="30"/>
+    </row>
+    <row r="107" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
         <v>55</v>
       </c>
@@ -4256,9 +4288,9 @@
       <c r="C107" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E107" s="29"/>
-    </row>
-    <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E107" s="30"/>
+    </row>
+    <row r="108" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A108" s="17" t="s">
         <v>100</v>
       </c>
@@ -4268,9 +4300,9 @@
       <c r="C108" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E108" s="29"/>
-    </row>
-    <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E108" s="30"/>
+    </row>
+    <row r="109" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A109" s="17" t="s">
         <v>34</v>
       </c>
@@ -4280,9 +4312,9 @@
       <c r="C109" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E109" s="29"/>
-    </row>
-    <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="E109" s="30"/>
+    </row>
+    <row r="110" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A110" s="17" t="s">
         <v>112</v>
       </c>
@@ -4292,9 +4324,9 @@
       <c r="C110" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E110" s="30"/>
-    </row>
-    <row r="111" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="31"/>
+    </row>
+    <row r="111" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="17" t="s">
         <v>65</v>
       </c>
@@ -4305,10 +4337,10 @@
         <v>287</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A112" s="17" t="s">
         <v>17</v>
       </c>
@@ -4320,7 +4352,7 @@
       </c>
       <c r="E112" s="27"/>
     </row>
-    <row r="113" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A113" s="17" t="s">
         <v>24</v>
       </c>
@@ -4332,7 +4364,7 @@
       </c>
       <c r="E113" s="27"/>
     </row>
-    <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A114" s="17" t="s">
         <v>104</v>
       </c>
@@ -4344,7 +4376,7 @@
       </c>
       <c r="E114" s="27"/>
     </row>
-    <row r="115" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A115" s="17" t="s">
         <v>69</v>
       </c>
@@ -4356,7 +4388,7 @@
       </c>
       <c r="E115" s="27"/>
     </row>
-    <row r="116" spans="1:5" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" s="22" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A116" s="17" t="s">
         <v>54</v>
       </c>
@@ -4368,7 +4400,7 @@
       </c>
       <c r="E116" s="27"/>
     </row>
-    <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A117" s="17" t="s">
         <v>45</v>
       </c>
@@ -4380,7 +4412,7 @@
       </c>
       <c r="E117" s="27"/>
     </row>
-    <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A118" s="17" t="s">
         <v>75</v>
       </c>
@@ -4392,7 +4424,7 @@
       </c>
       <c r="E118" s="27"/>
     </row>
-    <row r="119" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A119" s="17" t="s">
         <v>26</v>
       </c>
@@ -4404,7 +4436,7 @@
       </c>
       <c r="E119" s="27"/>
     </row>
-    <row r="120" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A120" s="17" t="s">
         <v>46</v>
       </c>
@@ -4416,7 +4448,7 @@
       </c>
       <c r="E120" s="27"/>
     </row>
-    <row r="121" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A121" s="17" t="s">
         <v>63</v>
       </c>
@@ -4428,7 +4460,7 @@
       </c>
       <c r="E121" s="27"/>
     </row>
-    <row r="122" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A122" s="17" t="s">
         <v>106</v>
       </c>
@@ -4440,7 +4472,7 @@
       </c>
       <c r="E122" s="27"/>
     </row>
-    <row r="123" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="17" t="s">
         <v>329</v>
       </c>
@@ -4451,10 +4483,10 @@
         <v>270</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A124" s="17" t="s">
         <v>331</v>
       </c>
@@ -4466,7 +4498,7 @@
       </c>
       <c r="E124" s="27"/>
     </row>
-    <row r="125" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A125" s="17" t="s">
         <v>342</v>
       </c>
@@ -4478,7 +4510,7 @@
       </c>
       <c r="E125" s="27"/>
     </row>
-    <row r="126" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A126" s="17" t="s">
         <v>349</v>
       </c>
@@ -4490,7 +4522,7 @@
       </c>
       <c r="E126" s="27"/>
     </row>
-    <row r="127" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A127" s="17" t="s">
         <v>391</v>
       </c>
@@ -4502,7 +4534,7 @@
       </c>
       <c r="E127" s="27"/>
     </row>
-    <row r="128" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A128" s="17" t="s">
         <v>395</v>
       </c>
@@ -4514,7 +4546,7 @@
       </c>
       <c r="E128" s="27"/>
     </row>
-    <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A129" s="17" t="s">
         <v>400</v>
       </c>
@@ -4526,7 +4558,7 @@
       </c>
       <c r="E129" s="27"/>
     </row>
-    <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A130" s="17" t="s">
         <v>406</v>
       </c>
@@ -4538,7 +4570,7 @@
       </c>
       <c r="E130" s="27"/>
     </row>
-    <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A131" s="17" t="s">
         <v>414</v>
       </c>
@@ -4550,7 +4582,7 @@
       </c>
       <c r="E131" s="27"/>
     </row>
-    <row r="132" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="17" t="s">
         <v>465</v>
       </c>
@@ -4562,7 +4594,7 @@
       </c>
       <c r="E132" s="27"/>
     </row>
-    <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A133" s="17" t="s">
         <v>467</v>
       </c>
@@ -4574,7 +4606,7 @@
       </c>
       <c r="E133" s="27"/>
     </row>
-    <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A134" s="17" t="s">
         <v>469</v>
       </c>
@@ -4586,7 +4618,7 @@
       </c>
       <c r="E134" s="27"/>
     </row>
-    <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A135" s="17" t="s">
         <v>516</v>
       </c>
@@ -4598,7 +4630,7 @@
       </c>
       <c r="E135" s="27"/>
     </row>
-    <row r="136" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="17" t="s">
         <v>322</v>
       </c>
@@ -4609,10 +4641,10 @@
         <v>245</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A137" s="17" t="s">
         <v>333</v>
       </c>
@@ -4624,7 +4656,7 @@
       </c>
       <c r="E137" s="27"/>
     </row>
-    <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A138" s="17" t="s">
         <v>335</v>
       </c>
@@ -4636,7 +4668,7 @@
       </c>
       <c r="E138" s="27"/>
     </row>
-    <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A139" s="17" t="s">
         <v>338</v>
       </c>
@@ -4648,7 +4680,7 @@
       </c>
       <c r="E139" s="27"/>
     </row>
-    <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A140" s="17" t="s">
         <v>340</v>
       </c>
@@ -4660,7 +4692,7 @@
       </c>
       <c r="E140" s="27"/>
     </row>
-    <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A141" s="17" t="s">
         <v>352</v>
       </c>
@@ -4672,7 +4704,7 @@
       </c>
       <c r="E141" s="27"/>
     </row>
-    <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A142" s="17" t="s">
         <v>389</v>
       </c>
@@ -4684,7 +4716,7 @@
       </c>
       <c r="E142" s="27"/>
     </row>
-    <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A143" s="17" t="s">
         <v>397</v>
       </c>
@@ -4696,7 +4728,7 @@
       </c>
       <c r="E143" s="27"/>
     </row>
-    <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A144" s="17" t="s">
         <v>411</v>
       </c>
@@ -4708,7 +4740,7 @@
       </c>
       <c r="E144" s="27"/>
     </row>
-    <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A145" s="17" t="s">
         <v>448</v>
       </c>
@@ -4720,7 +4752,7 @@
       </c>
       <c r="E145" s="27"/>
     </row>
-    <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A146" s="17" t="s">
         <v>454</v>
       </c>
@@ -4732,7 +4764,7 @@
       </c>
       <c r="E146" s="27"/>
     </row>
-    <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A147" s="17" t="s">
         <v>461</v>
       </c>
@@ -4744,7 +4776,7 @@
       </c>
       <c r="E147" s="27"/>
     </row>
-    <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A148" s="17" t="s">
         <v>499</v>
       </c>
@@ -4756,7 +4788,7 @@
       </c>
       <c r="E148" s="27"/>
     </row>
-    <row r="149" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="17" t="s">
         <v>319</v>
       </c>
@@ -4767,10 +4799,10 @@
         <v>321</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A150" s="17" t="s">
         <v>357</v>
       </c>
@@ -4782,7 +4814,7 @@
       </c>
       <c r="E150" s="24"/>
     </row>
-    <row r="151" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
         <v>359</v>
       </c>
@@ -4794,7 +4826,7 @@
       </c>
       <c r="E151" s="24"/>
     </row>
-    <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A152" s="17" t="s">
         <v>361</v>
       </c>
@@ -4806,7 +4838,7 @@
       </c>
       <c r="E152" s="24"/>
     </row>
-    <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A153" s="17" t="s">
         <v>363</v>
       </c>
@@ -4818,7 +4850,7 @@
       </c>
       <c r="E153" s="24"/>
     </row>
-    <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A154" s="17" t="s">
         <v>368</v>
       </c>
@@ -4830,7 +4862,7 @@
       </c>
       <c r="E154" s="24"/>
     </row>
-    <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A155" s="17" t="s">
         <v>385</v>
       </c>
@@ -4842,7 +4874,7 @@
       </c>
       <c r="E155" s="24"/>
     </row>
-    <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A156" s="17" t="s">
         <v>387</v>
       </c>
@@ -4854,7 +4886,7 @@
       </c>
       <c r="E156" s="24"/>
     </row>
-    <row r="157" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A157" s="17" t="s">
         <v>409</v>
       </c>
@@ -4866,7 +4898,7 @@
       </c>
       <c r="E157" s="24"/>
     </row>
-    <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A158" s="17" t="s">
         <v>446</v>
       </c>
@@ -4878,7 +4910,7 @@
       </c>
       <c r="E158" s="24"/>
     </row>
-    <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A159" s="17" t="s">
         <v>452</v>
       </c>
@@ -4890,7 +4922,7 @@
       </c>
       <c r="E159" s="24"/>
     </row>
-    <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A160" s="17" t="s">
         <v>471</v>
       </c>
@@ -4902,7 +4934,7 @@
       </c>
       <c r="E160" s="24"/>
     </row>
-    <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A161" s="17" t="s">
         <v>480</v>
       </c>
@@ -4914,7 +4946,7 @@
       </c>
       <c r="E161" s="24"/>
     </row>
-    <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A162" s="17" t="s">
         <v>487</v>
       </c>
@@ -4926,7 +4958,7 @@
       </c>
       <c r="E162" s="24"/>
     </row>
-    <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A163" s="17" t="s">
         <v>489</v>
       </c>
@@ -4938,7 +4970,7 @@
       </c>
       <c r="E163" s="25"/>
     </row>
-    <row r="164" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="17" t="s">
         <v>585</v>
       </c>
@@ -4949,10 +4981,10 @@
         <v>300</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="17" t="s">
         <v>316</v>
       </c>
@@ -4964,7 +4996,7 @@
       </c>
       <c r="E165" s="27"/>
     </row>
-    <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A166" s="17" t="s">
         <v>326</v>
       </c>
@@ -4976,7 +5008,7 @@
       </c>
       <c r="E166" s="27"/>
     </row>
-    <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A167" s="17" t="s">
         <v>373</v>
       </c>
@@ -4988,7 +5020,7 @@
       </c>
       <c r="E167" s="27"/>
     </row>
-    <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A168" s="17" t="s">
         <v>378</v>
       </c>
@@ -5000,7 +5032,7 @@
       </c>
       <c r="E168" s="27"/>
     </row>
-    <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A169" s="17" t="s">
         <v>383</v>
       </c>
@@ -5012,7 +5044,7 @@
       </c>
       <c r="E169" s="27"/>
     </row>
-    <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A170" s="17" t="s">
         <v>393</v>
       </c>
@@ -5024,7 +5056,7 @@
       </c>
       <c r="E170" s="27"/>
     </row>
-    <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A171" s="17" t="s">
         <v>419</v>
       </c>
@@ -5036,7 +5068,7 @@
       </c>
       <c r="E171" s="27"/>
     </row>
-    <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A172" s="17" t="s">
         <v>502</v>
       </c>
@@ -5048,7 +5080,7 @@
       </c>
       <c r="E172" s="27"/>
     </row>
-    <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A173" s="17" t="s">
         <v>504</v>
       </c>
@@ -5060,7 +5092,7 @@
       </c>
       <c r="E173" s="27"/>
     </row>
-    <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A174" s="17" t="s">
         <v>506</v>
       </c>
@@ -5072,7 +5104,7 @@
       </c>
       <c r="E174" s="27"/>
     </row>
-    <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A175" s="17" t="s">
         <v>508</v>
       </c>
@@ -5084,7 +5116,7 @@
       </c>
       <c r="E175" s="27"/>
     </row>
-    <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A176" s="17" t="s">
         <v>537</v>
       </c>
@@ -5096,7 +5128,7 @@
       </c>
       <c r="E176" s="27"/>
     </row>
-    <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A177" s="17" t="s">
         <v>541</v>
       </c>
@@ -5108,7 +5140,7 @@
       </c>
       <c r="E177" s="27"/>
     </row>
-    <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A178" s="17" t="s">
         <v>545</v>
       </c>
@@ -5120,7 +5152,7 @@
       </c>
       <c r="E178" s="27"/>
     </row>
-    <row r="179" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="17" t="s">
         <v>344</v>
       </c>
@@ -5131,10 +5163,10 @@
         <v>346</v>
       </c>
       <c r="E179" s="26" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A180" s="17" t="s">
         <v>354</v>
       </c>
@@ -5146,7 +5178,7 @@
       </c>
       <c r="E180" s="27"/>
     </row>
-    <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A181" s="17" t="s">
         <v>370</v>
       </c>
@@ -5158,7 +5190,7 @@
       </c>
       <c r="E181" s="27"/>
     </row>
-    <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A182" s="17" t="s">
         <v>380</v>
       </c>
@@ -5170,7 +5202,7 @@
       </c>
       <c r="E182" s="27"/>
     </row>
-    <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A183" s="17" t="s">
         <v>403</v>
       </c>
@@ -5182,7 +5214,7 @@
       </c>
       <c r="E183" s="27"/>
     </row>
-    <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A184" s="17" t="s">
         <v>428</v>
       </c>
@@ -5194,7 +5226,7 @@
       </c>
       <c r="E184" s="27"/>
     </row>
-    <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A185" s="17" t="s">
         <v>430</v>
       </c>
@@ -5206,7 +5238,7 @@
       </c>
       <c r="E185" s="27"/>
     </row>
-    <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A186" s="17" t="s">
         <v>434</v>
       </c>
@@ -5218,7 +5250,7 @@
       </c>
       <c r="E186" s="27"/>
     </row>
-    <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A187" s="17" t="s">
         <v>436</v>
       </c>
@@ -5230,7 +5262,7 @@
       </c>
       <c r="E187" s="27"/>
     </row>
-    <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A188" s="17" t="s">
         <v>477</v>
       </c>
@@ -5242,7 +5274,7 @@
       </c>
       <c r="E188" s="27"/>
     </row>
-    <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A189" s="17" t="s">
         <v>485</v>
       </c>
@@ -5254,7 +5286,7 @@
       </c>
       <c r="E189" s="27"/>
     </row>
-    <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A190" s="17" t="s">
         <v>491</v>
       </c>
@@ -5266,7 +5298,7 @@
       </c>
       <c r="E190" s="27"/>
     </row>
-    <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A191" s="17" t="s">
         <v>525</v>
       </c>
@@ -5278,7 +5310,7 @@
       </c>
       <c r="E191" s="27"/>
     </row>
-    <row r="192" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="17" t="s">
         <v>347</v>
       </c>
@@ -5289,10 +5321,10 @@
         <v>296</v>
       </c>
       <c r="E192" s="26" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A193" s="17" t="s">
         <v>365</v>
       </c>
@@ -5304,7 +5336,7 @@
       </c>
       <c r="E193" s="27"/>
     </row>
-    <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A194" s="17" t="s">
         <v>375</v>
       </c>
@@ -5316,7 +5348,7 @@
       </c>
       <c r="E194" s="27"/>
     </row>
-    <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A195" s="17" t="s">
         <v>423</v>
       </c>
@@ -5328,7 +5360,7 @@
       </c>
       <c r="E195" s="27"/>
     </row>
-    <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A196" s="17" t="s">
         <v>441</v>
       </c>
@@ -5340,7 +5372,7 @@
       </c>
       <c r="E196" s="27"/>
     </row>
-    <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A197" s="17" t="s">
         <v>443</v>
       </c>
@@ -5352,7 +5384,7 @@
       </c>
       <c r="E197" s="27"/>
     </row>
-    <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A198" s="17" t="s">
         <v>474</v>
       </c>
@@ -5364,7 +5396,7 @@
       </c>
       <c r="E198" s="27"/>
     </row>
-    <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A199" s="17" t="s">
         <v>496</v>
       </c>
@@ -5376,7 +5408,7 @@
       </c>
       <c r="E199" s="27"/>
     </row>
-    <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A200" s="17" t="s">
         <v>510</v>
       </c>
@@ -5388,7 +5420,7 @@
       </c>
       <c r="E200" s="27"/>
     </row>
-    <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A201" s="17" t="s">
         <v>512</v>
       </c>
@@ -5400,7 +5432,7 @@
       </c>
       <c r="E201" s="27"/>
     </row>
-    <row r="202" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A202" s="17" t="s">
         <v>514</v>
       </c>
@@ -5412,7 +5444,7 @@
       </c>
       <c r="E202" s="27"/>
     </row>
-    <row r="203" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A203" s="17" t="s">
         <v>527</v>
       </c>
@@ -5424,7 +5456,7 @@
       </c>
       <c r="E203" s="27"/>
     </row>
-    <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A204" s="17" t="s">
         <v>532</v>
       </c>
@@ -5436,7 +5468,7 @@
       </c>
       <c r="E204" s="27"/>
     </row>
-    <row r="205" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A205" s="17" t="s">
         <v>534</v>
       </c>
@@ -5450,12 +5482,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="E19:E31"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="E45:E58"/>
     <mergeCell ref="E149:E163"/>
     <mergeCell ref="E164:E178"/>
     <mergeCell ref="E179:E191"/>
@@ -5466,6 +5492,12 @@
     <mergeCell ref="E111:E122"/>
     <mergeCell ref="E123:E135"/>
     <mergeCell ref="E136:E148"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E19:E31"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="E45:E58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5479,12 +5511,12 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5510,7 +5542,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5536,7 +5568,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5562,7 +5594,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5588,7 +5620,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5614,7 +5646,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5640,7 +5672,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -5666,7 +5698,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5692,7 +5724,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -5718,7 +5750,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5744,7 +5776,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5770,7 +5802,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -5811,14 +5843,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.53125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" style="12" customWidth="1"/>
     <col min="3" max="3" width="14" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5829,7 +5861,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -5840,7 +5872,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>555</v>
       </c>
@@ -5851,7 +5883,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -5862,7 +5894,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -5873,7 +5905,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -5884,7 +5916,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -5895,7 +5927,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -5906,7 +5938,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -5917,7 +5949,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5928,7 +5960,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -5939,7 +5971,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>50</v>
       </c>
@@ -5950,7 +5982,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
@@ -5961,7 +5993,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -5972,7 +6004,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -5983,7 +6015,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -5994,7 +6026,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -6005,7 +6037,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -6016,7 +6048,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>108</v>
       </c>
@@ -6027,7 +6059,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>107</v>
       </c>
@@ -6038,7 +6070,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>113</v>
       </c>
@@ -6049,7 +6081,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>103</v>
       </c>
@@ -6060,7 +6092,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>96</v>
       </c>
@@ -6071,7 +6103,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>91</v>
       </c>
@@ -6082,7 +6114,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -6093,7 +6125,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
@@ -6104,7 +6136,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>119</v>
       </c>
@@ -6115,7 +6147,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
@@ -6126,7 +6158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
@@ -6137,7 +6169,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -6148,7 +6180,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
@@ -6159,7 +6191,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -6170,7 +6202,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -6181,7 +6213,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -6192,7 +6224,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
@@ -6203,7 +6235,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>41</v>
       </c>
@@ -6214,7 +6246,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>57</v>
       </c>
@@ -6225,7 +6257,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
@@ -6236,7 +6268,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -6247,7 +6279,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
@@ -6258,7 +6290,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>16</v>
       </c>
@@ -6269,7 +6301,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>109</v>
       </c>
@@ -6280,7 +6312,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -6291,7 +6323,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>56</v>
       </c>
@@ -6302,7 +6334,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>114</v>
       </c>
@@ -6313,7 +6345,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
@@ -6324,7 +6356,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -6335,7 +6367,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>118</v>
       </c>
@@ -6346,7 +6378,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>1</v>
       </c>
@@ -6357,7 +6389,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>39</v>
       </c>
@@ -6368,7 +6400,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>115</v>
       </c>
@@ -6379,7 +6411,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
@@ -6390,7 +6422,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -6401,7 +6433,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>14</v>
       </c>
@@ -6412,7 +6444,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>87</v>
       </c>
@@ -6423,7 +6455,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>43</v>
       </c>
@@ -6434,7 +6466,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>47</v>
       </c>
@@ -6445,7 +6477,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>110</v>
       </c>
@@ -6456,7 +6488,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>105</v>
       </c>
@@ -6467,7 +6499,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>42</v>
       </c>
@@ -6478,7 +6510,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>2</v>
       </c>
@@ -6489,7 +6521,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -6500,7 +6532,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>27</v>
       </c>
@@ -6511,7 +6543,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>77</v>
       </c>
@@ -6522,7 +6554,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
@@ -6533,7 +6565,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>71</v>
       </c>
@@ -6544,7 +6576,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>89</v>
       </c>
@@ -6555,7 +6587,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>101</v>
       </c>
@@ -6566,7 +6598,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A69" s="9" t="s">
         <v>116</v>
       </c>
@@ -6577,7 +6609,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -6588,7 +6620,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>51</v>
       </c>
@@ -6599,7 +6631,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>60</v>
       </c>
@@ -6610,7 +6642,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>19</v>
       </c>
@@ -6621,7 +6653,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -6632,7 +6664,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>33</v>
       </c>
@@ -6643,7 +6675,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>58</v>
       </c>
@@ -6654,7 +6686,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>81</v>
       </c>
@@ -6665,7 +6697,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>10</v>
       </c>
@@ -6676,7 +6708,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>92</v>
       </c>
@@ -6687,7 +6719,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>28</v>
       </c>
@@ -6698,7 +6730,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>67</v>
       </c>
@@ -6709,7 +6741,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>49</v>
       </c>
@@ -6720,7 +6752,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>44</v>
       </c>
@@ -6731,7 +6763,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>11</v>
       </c>
@@ -6742,7 +6774,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>13</v>
       </c>
@@ -6753,7 +6785,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>32</v>
       </c>
@@ -6764,7 +6796,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>79</v>
       </c>
@@ -6775,7 +6807,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>5</v>
       </c>
@@ -6786,7 +6818,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>35</v>
       </c>
@@ -6797,7 +6829,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>30</v>
       </c>
@@ -6808,7 +6840,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>95</v>
       </c>
@@ -6819,7 +6851,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>48</v>
       </c>
@@ -6830,7 +6862,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>84</v>
       </c>
@@ -6841,7 +6873,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
@@ -6852,7 +6884,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -6863,7 +6895,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>55</v>
       </c>
@@ -6874,7 +6906,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>100</v>
       </c>
@@ -6885,7 +6917,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>34</v>
       </c>
@@ -6896,7 +6928,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>112</v>
       </c>
@@ -6907,7 +6939,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>65</v>
       </c>
@@ -6918,7 +6950,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>17</v>
       </c>
@@ -6929,7 +6961,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
@@ -6940,7 +6972,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>18</v>
       </c>
@@ -6951,7 +6983,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="20.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>104</v>
       </c>
@@ -6962,7 +6994,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>69</v>
       </c>
@@ -6973,7 +7005,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>54</v>
       </c>
@@ -6984,7 +7016,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>45</v>
       </c>
@@ -6995,7 +7027,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>75</v>
       </c>
@@ -7006,7 +7038,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>26</v>
       </c>
@@ -7017,7 +7049,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>46</v>
       </c>
@@ -7028,7 +7060,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>63</v>
       </c>
@@ -7039,7 +7071,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>111</v>
       </c>
@@ -7050,7 +7082,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>106</v>
       </c>
@@ -7061,7 +7093,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>99</v>
       </c>
@@ -7072,7 +7104,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>36</v>
       </c>
@@ -7083,7 +7115,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>38</v>
       </c>
@@ -7094,7 +7126,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
         <v>552</v>
       </c>
@@ -7105,7 +7137,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>316</v>
       </c>
@@ -7116,7 +7148,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>319</v>
       </c>
@@ -7127,7 +7159,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>322</v>
       </c>
@@ -7138,7 +7170,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>324</v>
       </c>
@@ -7149,7 +7181,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>326</v>
       </c>
@@ -7160,7 +7192,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>329</v>
       </c>
@@ -7171,7 +7203,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>331</v>
       </c>
@@ -7182,7 +7214,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>333</v>
       </c>
@@ -7193,7 +7225,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>335</v>
       </c>
@@ -7204,7 +7236,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>338</v>
       </c>
@@ -7215,7 +7247,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>340</v>
       </c>
@@ -7226,7 +7258,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>342</v>
       </c>
@@ -7237,7 +7269,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>344</v>
       </c>
@@ -7248,7 +7280,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>347</v>
       </c>
@@ -7259,7 +7291,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>349</v>
       </c>
@@ -7270,7 +7302,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>352</v>
       </c>
@@ -7281,7 +7313,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>354</v>
       </c>
@@ -7292,7 +7324,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>357</v>
       </c>
@@ -7303,7 +7335,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>359</v>
       </c>
@@ -7314,7 +7346,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>361</v>
       </c>
@@ -7325,7 +7357,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>363</v>
       </c>
@@ -7336,7 +7368,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>365</v>
       </c>
@@ -7347,7 +7379,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>368</v>
       </c>
@@ -7358,7 +7390,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>370</v>
       </c>
@@ -7369,7 +7401,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>373</v>
       </c>
@@ -7380,7 +7412,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>375</v>
       </c>
@@ -7391,7 +7423,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>378</v>
       </c>
@@ -7402,7 +7434,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>380</v>
       </c>
@@ -7413,7 +7445,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="21.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>383</v>
       </c>
@@ -7424,7 +7456,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>385</v>
       </c>
@@ -7435,7 +7467,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>387</v>
       </c>
@@ -7446,7 +7478,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>389</v>
       </c>
@@ -7457,7 +7489,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>391</v>
       </c>
@@ -7468,7 +7500,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>393</v>
       </c>
@@ -7479,7 +7511,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>395</v>
       </c>
@@ -7490,7 +7522,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>397</v>
       </c>
@@ -7501,7 +7533,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>400</v>
       </c>
@@ -7512,7 +7544,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>403</v>
       </c>
@@ -7523,7 +7555,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>404</v>
       </c>
@@ -7534,7 +7566,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>406</v>
       </c>
@@ -7545,7 +7577,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>409</v>
       </c>
@@ -7556,7 +7588,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>411</v>
       </c>
@@ -7567,7 +7599,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>414</v>
       </c>
@@ -7578,7 +7610,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>416</v>
       </c>
@@ -7589,7 +7621,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>419</v>
       </c>
@@ -7600,7 +7632,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>421</v>
       </c>
@@ -7611,7 +7643,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A164" s="5" t="s">
         <v>423</v>
       </c>
@@ -7620,7 +7652,7 @@
       </c>
       <c r="C164" s="9"/>
     </row>
-    <row r="165" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>426</v>
       </c>
@@ -7631,7 +7663,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>428</v>
       </c>
@@ -7642,7 +7674,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>430</v>
       </c>
@@ -7653,7 +7685,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>432</v>
       </c>
@@ -7664,7 +7696,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>434</v>
       </c>
@@ -7675,7 +7707,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>436</v>
       </c>
@@ -7686,7 +7718,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>438</v>
       </c>
@@ -7697,7 +7729,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>441</v>
       </c>
@@ -7708,7 +7740,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>443</v>
       </c>
@@ -7719,7 +7751,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>446</v>
       </c>
@@ -7730,7 +7762,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>448</v>
       </c>
@@ -7741,7 +7773,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>450</v>
       </c>
@@ -7752,7 +7784,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>452</v>
       </c>
@@ -7763,7 +7795,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>454</v>
       </c>
@@ -7774,7 +7806,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>457</v>
       </c>
@@ -7785,7 +7817,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>459</v>
       </c>
@@ -7796,7 +7828,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>461</v>
       </c>
@@ -7807,7 +7839,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
         <v>558</v>
       </c>
@@ -7818,7 +7850,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>465</v>
       </c>
@@ -7829,7 +7861,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>467</v>
       </c>
@@ -7840,7 +7872,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>469</v>
       </c>
@@ -7851,7 +7883,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>471</v>
       </c>
@@ -7862,7 +7894,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>474</v>
       </c>
@@ -7873,7 +7905,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>477</v>
       </c>
@@ -7884,7 +7916,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>480</v>
       </c>
@@ -7895,7 +7927,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>482</v>
       </c>
@@ -7906,7 +7938,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>483</v>
       </c>
@@ -7917,7 +7949,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>485</v>
       </c>
@@ -7928,7 +7960,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>487</v>
       </c>
@@ -7939,7 +7971,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>489</v>
       </c>
@@ -7950,7 +7982,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>491</v>
       </c>
@@ -7961,7 +7993,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>494</v>
       </c>
@@ -7972,7 +8004,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>496</v>
       </c>
@@ -7983,7 +8015,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>499</v>
       </c>
@@ -7994,7 +8026,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>502</v>
       </c>
@@ -8005,7 +8037,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>504</v>
       </c>
@@ -8016,7 +8048,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>506</v>
       </c>
@@ -8027,7 +8059,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>508</v>
       </c>
@@ -8038,7 +8070,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>510</v>
       </c>
@@ -8049,7 +8081,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>512</v>
       </c>
@@ -8060,7 +8092,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>514</v>
       </c>
@@ -8071,7 +8103,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>516</v>
       </c>
@@ -8082,7 +8114,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>518</v>
       </c>
@@ -8093,7 +8125,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>522</v>
       </c>
@@ -8104,7 +8136,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>525</v>
       </c>
@@ -8115,7 +8147,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>527</v>
       </c>
@@ -8126,7 +8158,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>530</v>
       </c>
@@ -8137,7 +8169,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>532</v>
       </c>
@@ -8148,7 +8180,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>534</v>
       </c>
@@ -8159,7 +8191,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>537</v>
       </c>
@@ -8170,7 +8202,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>539</v>
       </c>
@@ -8181,7 +8213,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>541</v>
       </c>
@@ -8192,7 +8224,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>543</v>
       </c>
@@ -8203,7 +8235,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>545</v>
       </c>
@@ -8228,9 +8260,9 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>575</v>
       </c>
@@ -8264,7 +8296,7 @@
         <v>5943</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8296,7 +8328,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -8328,7 +8360,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -8360,7 +8392,7 @@
         <v>5268</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -8392,7 +8424,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -8424,7 +8456,7 @@
         <v>5943</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>324</v>
       </c>
@@ -8456,7 +8488,7 @@
         <v>6228</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>450</v>
       </c>
@@ -8488,7 +8520,7 @@
         <v>6294</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>483</v>
       </c>
@@ -8520,7 +8552,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -8552,7 +8584,7 @@
         <v>8055</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8584,7 +8616,7 @@
         <v>9537</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>426</v>
       </c>
@@ -8616,7 +8648,7 @@
         <v>8673</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>432</v>
       </c>
@@ -8648,7 +8680,7 @@
         <v>5753</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>457</v>
       </c>
@@ -8680,7 +8712,7 @@
         <v>5753</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>459</v>
       </c>
@@ -8712,7 +8744,7 @@
         <v>8875</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>522</v>
       </c>
@@ -8744,7 +8776,7 @@
         <v>9384</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>530</v>
       </c>
@@ -8776,7 +8808,7 @@
         <v>8055</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>539</v>
       </c>
@@ -8808,7 +8840,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -8840,7 +8872,7 @@
         <v>5943</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -8872,7 +8904,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -8904,7 +8936,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -8936,7 +8968,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -8968,7 +9000,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -9000,7 +9032,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -9032,7 +9064,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -9064,7 +9096,7 @@
         <v>9315</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -9096,7 +9128,7 @@
         <v>9315</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -9128,7 +9160,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -9160,7 +9192,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -9192,7 +9224,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -9224,7 +9256,7 @@
         <v>5965</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -9256,7 +9288,7 @@
         <v>5719</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -9288,7 +9320,7 @@
         <v>7479</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -9320,7 +9352,7 @@
         <v>7438</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -9352,7 +9384,7 @@
         <v>7782</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -9384,7 +9416,7 @@
         <v>5930</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -9416,7 +9448,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -9448,7 +9480,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -9480,7 +9512,7 @@
         <v>7885</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -9512,7 +9544,7 @@
         <v>8177</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -9544,7 +9576,7 @@
         <v>8177</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -9576,7 +9608,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -9608,7 +9640,7 @@
         <v>7173</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -9640,7 +9672,7 @@
         <v>7345</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -9672,7 +9704,7 @@
         <v>7345</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -9704,7 +9736,7 @@
         <v>7345</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -9736,7 +9768,7 @@
         <v>6083</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -9768,7 +9800,7 @@
         <v>6083</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -9800,7 +9832,7 @@
         <v>7395</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -9832,7 +9864,7 @@
         <v>7395</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -9864,7 +9896,7 @@
         <v>9715</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -9896,7 +9928,7 @@
         <v>7152</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -9928,7 +9960,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -9960,7 +9992,7 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -9992,7 +10024,7 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10024,7 +10056,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -10056,7 +10088,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -10088,7 +10120,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -10120,7 +10152,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -10152,7 +10184,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -10184,7 +10216,7 @@
         <v>7951</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -10216,7 +10248,7 @@
         <v>6938</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -10248,7 +10280,7 @@
         <v>6938</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -10280,7 +10312,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -10312,7 +10344,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -10344,7 +10376,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -10376,7 +10408,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -10408,7 +10440,7 @@
         <v>8367</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -10440,7 +10472,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -10472,7 +10504,7 @@
         <v>7752</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -10504,7 +10536,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -10536,7 +10568,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>105</v>
       </c>
@@ -10568,7 +10600,7 @@
         <v>6453</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -10600,7 +10632,7 @@
         <v>6453</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -10632,7 +10664,7 @@
         <v>9553</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -10664,7 +10696,7 @@
         <v>7726</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -10696,7 +10728,7 @@
         <v>8174</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -10728,7 +10760,7 @@
         <v>5753</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>579</v>
       </c>
@@ -10760,7 +10792,7 @@
         <v>7938</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>581</v>
       </c>
@@ -10792,7 +10824,7 @@
         <v>8174</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -10824,7 +10856,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>71</v>
       </c>
@@ -10856,7 +10888,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -10888,7 +10920,7 @@
         <v>8358</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -10920,7 +10952,7 @@
         <v>8673</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -10952,7 +10984,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -10984,7 +11016,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -11016,7 +11048,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>72</v>
       </c>
@@ -11048,7 +11080,7 @@
         <v>9365</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -11080,7 +11112,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -11112,7 +11144,7 @@
         <v>9353</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -11144,7 +11176,7 @@
         <v>7706</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -11176,7 +11208,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -11208,7 +11240,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -11240,7 +11272,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -11272,7 +11304,7 @@
         <v>6228</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -11304,7 +11336,7 @@
         <v>7642</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>44</v>
       </c>
@@ -11336,7 +11368,7 @@
         <v>5753</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -11368,7 +11400,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -11400,7 +11432,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>583</v>
       </c>
@@ -11432,7 +11464,7 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -11464,7 +11496,7 @@
         <v>5268</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -11496,7 +11528,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -11528,7 +11560,7 @@
         <v>7476</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -11560,7 +11592,7 @@
         <v>7938</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -11592,7 +11624,7 @@
         <v>8473</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>53</v>
       </c>
@@ -11624,7 +11656,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -11656,7 +11688,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>100</v>
       </c>
@@ -11688,7 +11720,7 @@
         <v>7718</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -11720,7 +11752,7 @@
         <v>7718</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -11752,7 +11784,7 @@
         <v>5966</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>65</v>
       </c>
@@ -11784,7 +11816,7 @@
         <v>6944</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -11816,7 +11848,7 @@
         <v>9435</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>24</v>
       </c>
@@ -11848,7 +11880,7 @@
         <v>7959</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -11880,7 +11912,7 @@
         <v>7958</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>69</v>
       </c>
@@ -11912,7 +11944,7 @@
         <v>7981</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>54</v>
       </c>
@@ -11944,7 +11976,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -11976,7 +12008,7 @@
         <v>8937</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>75</v>
       </c>
@@ -12008,7 +12040,7 @@
         <v>8055</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -12040,7 +12072,7 @@
         <v>8055</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>46</v>
       </c>
@@ -12072,7 +12104,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>63</v>
       </c>
@@ -12104,7 +12136,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -12136,7 +12168,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>329</v>
       </c>
@@ -12168,7 +12200,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>331</v>
       </c>
@@ -12200,7 +12232,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>342</v>
       </c>
@@ -12232,7 +12264,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>349</v>
       </c>
@@ -12264,7 +12296,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>391</v>
       </c>
@@ -12296,7 +12328,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>395</v>
       </c>
@@ -12328,7 +12360,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>400</v>
       </c>
@@ -12360,7 +12392,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>406</v>
       </c>
@@ -12392,7 +12424,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>414</v>
       </c>
@@ -12424,7 +12456,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>465</v>
       </c>
@@ -12456,7 +12488,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>467</v>
       </c>
@@ -12488,7 +12520,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>469</v>
       </c>
@@ -12520,7 +12552,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>516</v>
       </c>
@@ -12552,7 +12584,7 @@
         <v>5943</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>322</v>
       </c>
@@ -12584,7 +12616,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>333</v>
       </c>
@@ -12616,7 +12648,7 @@
         <v>6785</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>335</v>
       </c>
@@ -12648,7 +12680,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>338</v>
       </c>
@@ -12680,7 +12712,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>340</v>
       </c>
@@ -12712,7 +12744,7 @@
         <v>5965</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>352</v>
       </c>
@@ -12744,7 +12776,7 @@
         <v>7152</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>389</v>
       </c>
@@ -12776,7 +12808,7 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>397</v>
       </c>
@@ -12808,7 +12840,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>411</v>
       </c>
@@ -12840,7 +12872,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>448</v>
       </c>
@@ -12872,7 +12904,7 @@
         <v>6858</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>454</v>
       </c>
@@ -12904,7 +12936,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>461</v>
       </c>
@@ -12936,7 +12968,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>499</v>
       </c>
@@ -12968,7 +13000,7 @@
         <v>7276</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>319</v>
       </c>
@@ -13000,7 +13032,7 @@
         <v>7479</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>357</v>
       </c>
@@ -13032,7 +13064,7 @@
         <v>7438</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>359</v>
       </c>
@@ -13064,7 +13096,7 @@
         <v>7438</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>361</v>
       </c>
@@ -13096,7 +13128,7 @@
         <v>7782</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>363</v>
       </c>
@@ -13128,7 +13160,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>368</v>
       </c>
@@ -13160,7 +13192,7 @@
         <v>7345</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>385</v>
       </c>
@@ -13192,7 +13224,7 @@
         <v>7173</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>387</v>
       </c>
@@ -13224,7 +13256,7 @@
         <v>7752</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>409</v>
       </c>
@@ -13256,7 +13288,7 @@
         <v>7706</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>446</v>
       </c>
@@ -13288,7 +13320,7 @@
         <v>7642</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>452</v>
       </c>
@@ -13320,7 +13352,7 @@
         <v>7327</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>471</v>
       </c>
@@ -13352,7 +13384,7 @@
         <v>7476</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>480</v>
       </c>
@@ -13384,7 +13416,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>487</v>
       </c>
@@ -13416,7 +13448,7 @@
         <v>7718</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>489</v>
       </c>
@@ -13448,7 +13480,7 @@
         <v>8177</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>585</v>
       </c>
@@ -13480,7 +13512,7 @@
         <v>8093</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>316</v>
       </c>
@@ -13512,7 +13544,7 @@
         <v>8195</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>326</v>
       </c>
@@ -13544,7 +13576,7 @@
         <v>7885</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>373</v>
       </c>
@@ -13576,7 +13608,7 @@
         <v>8177</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>378</v>
       </c>
@@ -13608,7 +13640,7 @@
         <v>7951</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>383</v>
       </c>
@@ -13640,7 +13672,7 @@
         <v>7950</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>393</v>
       </c>
@@ -13672,7 +13704,7 @@
         <v>8174</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>419</v>
       </c>
@@ -13704,7 +13736,7 @@
         <v>7959</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>502</v>
       </c>
@@ -13736,7 +13768,7 @@
         <v>7959</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>504</v>
       </c>
@@ -13768,7 +13800,7 @@
         <v>7958</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>506</v>
       </c>
@@ -13800,7 +13832,7 @@
         <v>7981</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>508</v>
       </c>
@@ -13832,7 +13864,7 @@
         <v>8055</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>537</v>
       </c>
@@ -13864,7 +13896,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>541</v>
       </c>
@@ -13896,7 +13928,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>545</v>
       </c>
@@ -13928,7 +13960,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>344</v>
       </c>
@@ -13960,7 +13992,7 @@
         <v>8927</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>354</v>
       </c>
@@ -13992,7 +14024,7 @@
         <v>8971</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -14024,7 +14056,7 @@
         <v>8453</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>380</v>
       </c>
@@ -14056,7 +14088,7 @@
         <v>8367</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>403</v>
       </c>
@@ -14088,7 +14120,7 @@
         <v>8358</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>428</v>
       </c>
@@ -14120,7 +14152,7 @@
         <v>8673</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>430</v>
       </c>
@@ -14152,7 +14184,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>434</v>
       </c>
@@ -14184,7 +14216,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>436</v>
       </c>
@@ -14216,7 +14248,7 @@
         <v>9060</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>477</v>
       </c>
@@ -14248,7 +14280,7 @@
         <v>8473</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>485</v>
       </c>
@@ -14280,7 +14312,7 @@
         <v>9059</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>491</v>
       </c>
@@ -14312,7 +14344,7 @@
         <v>8875</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>525</v>
       </c>
@@ -14344,7 +14376,7 @@
         <v>9315</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>347</v>
       </c>
@@ -14376,7 +14408,7 @@
         <v>9419</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>365</v>
       </c>
@@ -14408,7 +14440,7 @@
         <v>9126</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>375</v>
       </c>
@@ -14440,7 +14472,7 @@
         <v>9537</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>423</v>
       </c>
@@ -14472,7 +14504,7 @@
         <v>9442</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>441</v>
       </c>
@@ -14504,7 +14536,7 @@
         <v>9066</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>443</v>
       </c>
@@ -14536,7 +14568,7 @@
         <v>9413</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>474</v>
       </c>
@@ -14568,7 +14600,7 @@
         <v>9407</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>496</v>
       </c>
@@ -14600,7 +14632,7 @@
         <v>9168</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>510</v>
       </c>
@@ -14632,7 +14664,7 @@
         <v>9168</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>512</v>
       </c>
@@ -14664,7 +14696,7 @@
         <v>9435</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>514</v>
       </c>
@@ -14696,7 +14728,7 @@
         <v>9384</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>527</v>
       </c>
@@ -14728,7 +14760,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>532</v>
       </c>
@@ -14760,7 +14792,7 @@
         <v>9469</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>534</v>
       </c>

--- a/答辩/2014答辩分组名单(修正版).xlsx
+++ b/答辩/2014答辩分组名单(修正版).xlsx
@@ -2626,6 +2626,8 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2635,9 +2637,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2647,8 +2646,9 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2960,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2996,7 +2996,7 @@
       <c r="C2" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>689</v>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       <c r="C3" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="29"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
@@ -3023,7 +3023,7 @@
       <c r="C4" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
@@ -3035,7 +3035,7 @@
       <c r="C5" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
@@ -3047,7 +3047,7 @@
       <c r="C6" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
@@ -3059,7 +3059,7 @@
       <c r="C7" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
@@ -3071,7 +3071,7 @@
       <c r="C8" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
@@ -3083,7 +3083,7 @@
       <c r="C9" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
@@ -3095,7 +3095,7 @@
       <c r="C10" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
@@ -3107,7 +3107,7 @@
       <c r="C11" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="33" t="s">
         <v>690</v>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       <c r="C12" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
@@ -3133,7 +3133,7 @@
       <c r="C13" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
@@ -3145,7 +3145,7 @@
       <c r="C14" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -3157,7 +3157,7 @@
       <c r="C15" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
@@ -3169,7 +3169,7 @@
       <c r="C16" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
@@ -3181,7 +3181,7 @@
       <c r="C17" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
@@ -3193,177 +3193,177 @@
       <c r="C18" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="34" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="35"/>
     </row>
     <row r="26" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="35"/>
     </row>
     <row r="27" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -3376,7 +3376,7 @@
       <c r="C32" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="25" t="s">
         <v>691</v>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       <c r="C33" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
@@ -3402,7 +3402,7 @@
       <c r="C34" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
@@ -3414,7 +3414,7 @@
       <c r="C35" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
@@ -3426,7 +3426,7 @@
       <c r="C36" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E36" s="24"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
@@ -3438,7 +3438,7 @@
       <c r="C37" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="24"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
@@ -3450,7 +3450,7 @@
       <c r="C38" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="24"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
@@ -3462,7 +3462,7 @@
       <c r="C39" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
@@ -3474,7 +3474,7 @@
       <c r="C40" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="24"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
@@ -3486,7 +3486,7 @@
       <c r="C41" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="24"/>
+      <c r="E41" s="26"/>
     </row>
     <row r="42" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
@@ -3498,7 +3498,7 @@
       <c r="C42" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="26"/>
     </row>
     <row r="43" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
@@ -3510,7 +3510,7 @@
       <c r="C43" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
@@ -3522,7 +3522,7 @@
       <c r="C44" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E44" s="25"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
@@ -3534,7 +3534,7 @@
       <c r="C45" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="25" t="s">
         <v>692</v>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       <c r="C46" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E46" s="24"/>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
@@ -3560,7 +3560,7 @@
       <c r="C47" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
@@ -3572,7 +3572,7 @@
       <c r="C48" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E48" s="24"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
@@ -3584,7 +3584,7 @@
       <c r="C49" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E49" s="24"/>
+      <c r="E49" s="26"/>
     </row>
     <row r="50" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
@@ -3596,7 +3596,7 @@
       <c r="C50" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
@@ -3608,7 +3608,7 @@
       <c r="C51" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E51" s="24"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
@@ -3620,7 +3620,7 @@
       <c r="C52" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E52" s="24"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
@@ -3632,7 +3632,7 @@
       <c r="C53" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E53" s="24"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
@@ -3644,7 +3644,7 @@
       <c r="C54" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E54" s="24"/>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
@@ -3656,7 +3656,7 @@
       <c r="C55" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E55" s="24"/>
+      <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
@@ -3668,7 +3668,7 @@
       <c r="C56" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E56" s="24"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
@@ -3680,7 +3680,7 @@
       <c r="C57" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="E57" s="24"/>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
@@ -3692,7 +3692,7 @@
       <c r="C58" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E58" s="25"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
@@ -3704,7 +3704,7 @@
       <c r="C59" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="25" t="s">
         <v>693</v>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       <c r="C60" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="24"/>
+      <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
@@ -3730,7 +3730,7 @@
       <c r="C61" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E61" s="24"/>
+      <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
@@ -3742,7 +3742,7 @@
       <c r="C62" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="E62" s="24"/>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
@@ -3754,7 +3754,7 @@
       <c r="C63" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="E63" s="24"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
@@ -3766,7 +3766,7 @@
       <c r="C64" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="E64" s="24"/>
+      <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
@@ -3778,7 +3778,7 @@
       <c r="C65" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E65" s="24"/>
+      <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
@@ -3790,7 +3790,7 @@
       <c r="C66" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="24"/>
+      <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
@@ -3802,7 +3802,7 @@
       <c r="C67" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E67" s="24"/>
+      <c r="E67" s="26"/>
     </row>
     <row r="68" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
@@ -3814,7 +3814,7 @@
       <c r="C68" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E68" s="24"/>
+      <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
@@ -3826,7 +3826,7 @@
       <c r="C69" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E69" s="24"/>
+      <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
@@ -3838,7 +3838,7 @@
       <c r="C70" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E70" s="24"/>
+      <c r="E70" s="26"/>
     </row>
     <row r="71" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
@@ -3850,7 +3850,7 @@
       <c r="C71" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="E71" s="25"/>
+      <c r="E71" s="27"/>
     </row>
     <row r="72" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
@@ -3862,7 +3862,7 @@
       <c r="C72" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="30" t="s">
         <v>700</v>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       <c r="C73" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E73" s="30"/>
+      <c r="E73" s="31"/>
     </row>
     <row r="74" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
@@ -3888,7 +3888,7 @@
       <c r="C74" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="30"/>
+      <c r="E74" s="31"/>
     </row>
     <row r="75" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
@@ -3900,7 +3900,7 @@
       <c r="C75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="30"/>
+      <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
@@ -3912,7 +3912,7 @@
       <c r="C76" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E76" s="30"/>
+      <c r="E76" s="31"/>
     </row>
     <row r="77" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
@@ -3924,7 +3924,7 @@
       <c r="C77" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E77" s="30"/>
+      <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
@@ -3936,7 +3936,7 @@
       <c r="C78" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E78" s="30"/>
+      <c r="E78" s="31"/>
     </row>
     <row r="79" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
@@ -3948,7 +3948,7 @@
       <c r="C79" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E79" s="30"/>
+      <c r="E79" s="31"/>
     </row>
     <row r="80" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
@@ -3960,7 +3960,7 @@
       <c r="C80" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E80" s="30"/>
+      <c r="E80" s="31"/>
     </row>
     <row r="81" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
@@ -3972,7 +3972,7 @@
       <c r="C81" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E81" s="30"/>
+      <c r="E81" s="31"/>
     </row>
     <row r="82" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
@@ -3984,7 +3984,7 @@
       <c r="C82" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="30"/>
+      <c r="E82" s="31"/>
     </row>
     <row r="83" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
@@ -3996,7 +3996,7 @@
       <c r="C83" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E83" s="30"/>
+      <c r="E83" s="31"/>
     </row>
     <row r="84" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
@@ -4008,7 +4008,7 @@
       <c r="C84" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E84" s="31"/>
+      <c r="E84" s="32"/>
     </row>
     <row r="85" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
@@ -4020,7 +4020,7 @@
       <c r="C85" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="25" t="s">
         <v>702</v>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="C86" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="E86" s="24"/>
+      <c r="E86" s="26"/>
     </row>
     <row r="87" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
@@ -4046,7 +4046,7 @@
       <c r="C87" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="E87" s="24"/>
+      <c r="E87" s="26"/>
     </row>
     <row r="88" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
@@ -4058,7 +4058,7 @@
       <c r="C88" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="E88" s="24"/>
+      <c r="E88" s="26"/>
     </row>
     <row r="89" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
@@ -4070,7 +4070,7 @@
       <c r="C89" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E89" s="24"/>
+      <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
@@ -4082,7 +4082,7 @@
       <c r="C90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E90" s="24"/>
+      <c r="E90" s="26"/>
     </row>
     <row r="91" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
@@ -4094,7 +4094,7 @@
       <c r="C91" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="E91" s="24"/>
+      <c r="E91" s="26"/>
     </row>
     <row r="92" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
@@ -4106,7 +4106,7 @@
       <c r="C92" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E92" s="24"/>
+      <c r="E92" s="26"/>
     </row>
     <row r="93" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
@@ -4118,7 +4118,7 @@
       <c r="C93" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E93" s="24"/>
+      <c r="E93" s="26"/>
     </row>
     <row r="94" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
@@ -4130,7 +4130,7 @@
       <c r="C94" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E94" s="24"/>
+      <c r="E94" s="26"/>
     </row>
     <row r="95" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A95" s="17" t="s">
@@ -4142,7 +4142,7 @@
       <c r="C95" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E95" s="24"/>
+      <c r="E95" s="26"/>
     </row>
     <row r="96" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
@@ -4154,7 +4154,7 @@
       <c r="C96" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E96" s="24"/>
+      <c r="E96" s="26"/>
     </row>
     <row r="97" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
@@ -4166,7 +4166,7 @@
       <c r="C97" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E97" s="24"/>
+      <c r="E97" s="26"/>
     </row>
     <row r="98" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
@@ -4178,7 +4178,7 @@
       <c r="C98" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E98" s="25"/>
+      <c r="E98" s="27"/>
     </row>
     <row r="99" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
@@ -4190,7 +4190,7 @@
       <c r="C99" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="30" t="s">
         <v>694</v>
       </c>
     </row>
@@ -4204,7 +4204,7 @@
       <c r="C100" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E100" s="30"/>
+      <c r="E100" s="31"/>
     </row>
     <row r="101" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
@@ -4216,7 +4216,7 @@
       <c r="C101" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E101" s="30"/>
+      <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
@@ -4228,7 +4228,7 @@
       <c r="C102" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E102" s="30"/>
+      <c r="E102" s="31"/>
     </row>
     <row r="103" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
@@ -4240,7 +4240,7 @@
       <c r="C103" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E103" s="30"/>
+      <c r="E103" s="31"/>
     </row>
     <row r="104" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
@@ -4252,7 +4252,7 @@
       <c r="C104" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E104" s="30"/>
+      <c r="E104" s="31"/>
     </row>
     <row r="105" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
@@ -4264,7 +4264,7 @@
       <c r="C105" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E105" s="30"/>
+      <c r="E105" s="31"/>
     </row>
     <row r="106" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
@@ -4276,7 +4276,7 @@
       <c r="C106" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E106" s="30"/>
+      <c r="E106" s="31"/>
     </row>
     <row r="107" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
@@ -4288,7 +4288,7 @@
       <c r="C107" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E107" s="30"/>
+      <c r="E107" s="31"/>
     </row>
     <row r="108" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A108" s="17" t="s">
@@ -4300,7 +4300,7 @@
       <c r="C108" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E108" s="30"/>
+      <c r="E108" s="31"/>
     </row>
     <row r="109" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A109" s="17" t="s">
@@ -4312,7 +4312,7 @@
       <c r="C109" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E109" s="30"/>
+      <c r="E109" s="31"/>
     </row>
     <row r="110" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A110" s="17" t="s">
@@ -4324,7 +4324,7 @@
       <c r="C110" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E110" s="31"/>
+      <c r="E110" s="32"/>
     </row>
     <row r="111" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="17" t="s">
@@ -4336,7 +4336,7 @@
       <c r="C111" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="28" t="s">
         <v>695</v>
       </c>
     </row>
@@ -4350,7 +4350,7 @@
       <c r="C112" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E112" s="27"/>
+      <c r="E112" s="29"/>
     </row>
     <row r="113" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A113" s="17" t="s">
@@ -4362,7 +4362,7 @@
       <c r="C113" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E113" s="27"/>
+      <c r="E113" s="29"/>
     </row>
     <row r="114" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A114" s="17" t="s">
@@ -4374,7 +4374,7 @@
       <c r="C114" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E114" s="27"/>
+      <c r="E114" s="29"/>
     </row>
     <row r="115" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A115" s="17" t="s">
@@ -4386,7 +4386,7 @@
       <c r="C115" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E115" s="27"/>
+      <c r="E115" s="29"/>
     </row>
     <row r="116" spans="1:5" s="22" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A116" s="17" t="s">
@@ -4398,7 +4398,7 @@
       <c r="C116" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E116" s="27"/>
+      <c r="E116" s="29"/>
     </row>
     <row r="117" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A117" s="17" t="s">
@@ -4410,7 +4410,7 @@
       <c r="C117" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E117" s="27"/>
+      <c r="E117" s="29"/>
     </row>
     <row r="118" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A118" s="17" t="s">
@@ -4422,7 +4422,7 @@
       <c r="C118" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E118" s="27"/>
+      <c r="E118" s="29"/>
     </row>
     <row r="119" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A119" s="17" t="s">
@@ -4434,7 +4434,7 @@
       <c r="C119" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E119" s="27"/>
+      <c r="E119" s="29"/>
     </row>
     <row r="120" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A120" s="17" t="s">
@@ -4446,7 +4446,7 @@
       <c r="C120" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E120" s="27"/>
+      <c r="E120" s="29"/>
     </row>
     <row r="121" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A121" s="17" t="s">
@@ -4458,7 +4458,7 @@
       <c r="C121" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E121" s="27"/>
+      <c r="E121" s="29"/>
     </row>
     <row r="122" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A122" s="17" t="s">
@@ -4470,7 +4470,7 @@
       <c r="C122" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E122" s="27"/>
+      <c r="E122" s="29"/>
     </row>
     <row r="123" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="17" t="s">
@@ -4482,7 +4482,7 @@
       <c r="C123" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E123" s="26" t="s">
+      <c r="E123" s="28" t="s">
         <v>696</v>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       <c r="C124" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E124" s="27"/>
+      <c r="E124" s="29"/>
     </row>
     <row r="125" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A125" s="17" t="s">
@@ -4508,7 +4508,7 @@
       <c r="C125" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="E125" s="27"/>
+      <c r="E125" s="29"/>
     </row>
     <row r="126" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A126" s="17" t="s">
@@ -4520,7 +4520,7 @@
       <c r="C126" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E126" s="27"/>
+      <c r="E126" s="29"/>
     </row>
     <row r="127" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A127" s="17" t="s">
@@ -4532,7 +4532,7 @@
       <c r="C127" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E127" s="27"/>
+      <c r="E127" s="29"/>
     </row>
     <row r="128" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A128" s="17" t="s">
@@ -4544,7 +4544,7 @@
       <c r="C128" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E128" s="27"/>
+      <c r="E128" s="29"/>
     </row>
     <row r="129" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A129" s="17" t="s">
@@ -4556,7 +4556,7 @@
       <c r="C129" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="E129" s="27"/>
+      <c r="E129" s="29"/>
     </row>
     <row r="130" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A130" s="17" t="s">
@@ -4568,7 +4568,7 @@
       <c r="C130" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E130" s="27"/>
+      <c r="E130" s="29"/>
     </row>
     <row r="131" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A131" s="17" t="s">
@@ -4580,7 +4580,7 @@
       <c r="C131" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="E131" s="27"/>
+      <c r="E131" s="29"/>
     </row>
     <row r="132" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="17" t="s">
@@ -4592,7 +4592,7 @@
       <c r="C132" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E132" s="27"/>
+      <c r="E132" s="29"/>
     </row>
     <row r="133" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A133" s="17" t="s">
@@ -4604,7 +4604,7 @@
       <c r="C133" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E133" s="27"/>
+      <c r="E133" s="29"/>
     </row>
     <row r="134" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A134" s="17" t="s">
@@ -4616,7 +4616,7 @@
       <c r="C134" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E134" s="27"/>
+      <c r="E134" s="29"/>
     </row>
     <row r="135" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A135" s="17" t="s">
@@ -4628,7 +4628,7 @@
       <c r="C135" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E135" s="27"/>
+      <c r="E135" s="29"/>
     </row>
     <row r="136" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="17" t="s">
@@ -4640,7 +4640,7 @@
       <c r="C136" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="28" t="s">
         <v>697</v>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       <c r="C137" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E137" s="27"/>
+      <c r="E137" s="29"/>
     </row>
     <row r="138" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A138" s="17" t="s">
@@ -4666,7 +4666,7 @@
       <c r="C138" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="E138" s="27"/>
+      <c r="E138" s="29"/>
     </row>
     <row r="139" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A139" s="17" t="s">
@@ -4678,7 +4678,7 @@
       <c r="C139" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E139" s="27"/>
+      <c r="E139" s="29"/>
     </row>
     <row r="140" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A140" s="17" t="s">
@@ -4690,7 +4690,7 @@
       <c r="C140" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E140" s="27"/>
+      <c r="E140" s="29"/>
     </row>
     <row r="141" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A141" s="17" t="s">
@@ -4702,7 +4702,7 @@
       <c r="C141" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="E141" s="27"/>
+      <c r="E141" s="29"/>
     </row>
     <row r="142" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A142" s="17" t="s">
@@ -4714,7 +4714,7 @@
       <c r="C142" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E142" s="27"/>
+      <c r="E142" s="29"/>
     </row>
     <row r="143" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A143" s="17" t="s">
@@ -4726,7 +4726,7 @@
       <c r="C143" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E143" s="27"/>
+      <c r="E143" s="29"/>
     </row>
     <row r="144" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A144" s="17" t="s">
@@ -4738,7 +4738,7 @@
       <c r="C144" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="E144" s="27"/>
+      <c r="E144" s="29"/>
     </row>
     <row r="145" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A145" s="17" t="s">
@@ -4750,7 +4750,7 @@
       <c r="C145" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E145" s="27"/>
+      <c r="E145" s="29"/>
     </row>
     <row r="146" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A146" s="17" t="s">
@@ -4762,7 +4762,7 @@
       <c r="C146" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="E146" s="27"/>
+      <c r="E146" s="29"/>
     </row>
     <row r="147" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A147" s="17" t="s">
@@ -4774,7 +4774,7 @@
       <c r="C147" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="E147" s="27"/>
+      <c r="E147" s="29"/>
     </row>
     <row r="148" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A148" s="17" t="s">
@@ -4786,7 +4786,7 @@
       <c r="C148" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="E148" s="27"/>
+      <c r="E148" s="29"/>
     </row>
     <row r="149" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="17" t="s">
@@ -4798,7 +4798,7 @@
       <c r="C149" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="E149" s="23" t="s">
+      <c r="E149" s="25" t="s">
         <v>698</v>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       <c r="C150" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E150" s="24"/>
+      <c r="E150" s="26"/>
     </row>
     <row r="151" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
@@ -4824,7 +4824,7 @@
       <c r="C151" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="E151" s="24"/>
+      <c r="E151" s="26"/>
     </row>
     <row r="152" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A152" s="17" t="s">
@@ -4836,7 +4836,7 @@
       <c r="C152" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="E152" s="24"/>
+      <c r="E152" s="26"/>
     </row>
     <row r="153" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A153" s="17" t="s">
@@ -4848,7 +4848,7 @@
       <c r="C153" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E153" s="24"/>
+      <c r="E153" s="26"/>
     </row>
     <row r="154" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A154" s="17" t="s">
@@ -4860,7 +4860,7 @@
       <c r="C154" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E154" s="24"/>
+      <c r="E154" s="26"/>
     </row>
     <row r="155" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A155" s="17" t="s">
@@ -4872,7 +4872,7 @@
       <c r="C155" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E155" s="24"/>
+      <c r="E155" s="26"/>
     </row>
     <row r="156" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A156" s="17" t="s">
@@ -4884,7 +4884,7 @@
       <c r="C156" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E156" s="24"/>
+      <c r="E156" s="26"/>
     </row>
     <row r="157" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A157" s="17" t="s">
@@ -4896,7 +4896,7 @@
       <c r="C157" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="E157" s="24"/>
+      <c r="E157" s="26"/>
     </row>
     <row r="158" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A158" s="17" t="s">
@@ -4908,7 +4908,7 @@
       <c r="C158" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E158" s="24"/>
+      <c r="E158" s="26"/>
     </row>
     <row r="159" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A159" s="17" t="s">
@@ -4920,7 +4920,7 @@
       <c r="C159" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E159" s="24"/>
+      <c r="E159" s="26"/>
     </row>
     <row r="160" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A160" s="17" t="s">
@@ -4932,7 +4932,7 @@
       <c r="C160" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="E160" s="24"/>
+      <c r="E160" s="26"/>
     </row>
     <row r="161" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A161" s="17" t="s">
@@ -4944,7 +4944,7 @@
       <c r="C161" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E161" s="24"/>
+      <c r="E161" s="26"/>
     </row>
     <row r="162" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A162" s="17" t="s">
@@ -4956,7 +4956,7 @@
       <c r="C162" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E162" s="24"/>
+      <c r="E162" s="26"/>
     </row>
     <row r="163" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A163" s="17" t="s">
@@ -4968,7 +4968,7 @@
       <c r="C163" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E163" s="25"/>
+      <c r="E163" s="27"/>
     </row>
     <row r="164" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="17" t="s">
@@ -4980,7 +4980,7 @@
       <c r="C164" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="28" t="s">
         <v>703</v>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       <c r="C165" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E165" s="27"/>
+      <c r="E165" s="29"/>
     </row>
     <row r="166" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A166" s="17" t="s">
@@ -5006,7 +5006,7 @@
       <c r="C166" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="E166" s="27"/>
+      <c r="E166" s="29"/>
     </row>
     <row r="167" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A167" s="17" t="s">
@@ -5018,7 +5018,7 @@
       <c r="C167" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E167" s="27"/>
+      <c r="E167" s="29"/>
     </row>
     <row r="168" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A168" s="17" t="s">
@@ -5030,7 +5030,7 @@
       <c r="C168" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E168" s="27"/>
+      <c r="E168" s="29"/>
     </row>
     <row r="169" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A169" s="17" t="s">
@@ -5042,7 +5042,7 @@
       <c r="C169" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="E169" s="27"/>
+      <c r="E169" s="29"/>
     </row>
     <row r="170" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A170" s="17" t="s">
@@ -5054,7 +5054,7 @@
       <c r="C170" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E170" s="27"/>
+      <c r="E170" s="29"/>
     </row>
     <row r="171" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A171" s="17" t="s">
@@ -5066,7 +5066,7 @@
       <c r="C171" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E171" s="27"/>
+      <c r="E171" s="29"/>
     </row>
     <row r="172" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A172" s="17" t="s">
@@ -5078,7 +5078,7 @@
       <c r="C172" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E172" s="27"/>
+      <c r="E172" s="29"/>
     </row>
     <row r="173" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A173" s="17" t="s">
@@ -5090,7 +5090,7 @@
       <c r="C173" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E173" s="27"/>
+      <c r="E173" s="29"/>
     </row>
     <row r="174" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A174" s="17" t="s">
@@ -5102,7 +5102,7 @@
       <c r="C174" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E174" s="27"/>
+      <c r="E174" s="29"/>
     </row>
     <row r="175" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A175" s="17" t="s">
@@ -5114,7 +5114,7 @@
       <c r="C175" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E175" s="27"/>
+      <c r="E175" s="29"/>
     </row>
     <row r="176" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A176" s="17" t="s">
@@ -5126,7 +5126,7 @@
       <c r="C176" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E176" s="27"/>
+      <c r="E176" s="29"/>
     </row>
     <row r="177" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A177" s="17" t="s">
@@ -5138,7 +5138,7 @@
       <c r="C177" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E177" s="27"/>
+      <c r="E177" s="29"/>
     </row>
     <row r="178" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A178" s="17" t="s">
@@ -5150,7 +5150,7 @@
       <c r="C178" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E178" s="27"/>
+      <c r="E178" s="29"/>
     </row>
     <row r="179" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="17" t="s">
@@ -5162,7 +5162,7 @@
       <c r="C179" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="E179" s="26" t="s">
+      <c r="E179" s="28" t="s">
         <v>701</v>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       <c r="C180" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="E180" s="27"/>
+      <c r="E180" s="29"/>
     </row>
     <row r="181" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A181" s="17" t="s">
@@ -5188,7 +5188,7 @@
       <c r="C181" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="E181" s="27"/>
+      <c r="E181" s="29"/>
     </row>
     <row r="182" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A182" s="17" t="s">
@@ -5200,7 +5200,7 @@
       <c r="C182" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E182" s="27"/>
+      <c r="E182" s="29"/>
     </row>
     <row r="183" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A183" s="17" t="s">
@@ -5212,7 +5212,7 @@
       <c r="C183" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E183" s="27"/>
+      <c r="E183" s="29"/>
     </row>
     <row r="184" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A184" s="17" t="s">
@@ -5224,7 +5224,7 @@
       <c r="C184" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E184" s="27"/>
+      <c r="E184" s="29"/>
     </row>
     <row r="185" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A185" s="17" t="s">
@@ -5236,7 +5236,7 @@
       <c r="C185" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E185" s="27"/>
+      <c r="E185" s="29"/>
     </row>
     <row r="186" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A186" s="17" t="s">
@@ -5248,7 +5248,7 @@
       <c r="C186" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E186" s="27"/>
+      <c r="E186" s="29"/>
     </row>
     <row r="187" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A187" s="17" t="s">
@@ -5260,7 +5260,7 @@
       <c r="C187" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E187" s="27"/>
+      <c r="E187" s="29"/>
     </row>
     <row r="188" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A188" s="17" t="s">
@@ -5272,7 +5272,7 @@
       <c r="C188" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="E188" s="27"/>
+      <c r="E188" s="29"/>
     </row>
     <row r="189" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A189" s="17" t="s">
@@ -5284,7 +5284,7 @@
       <c r="C189" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E189" s="27"/>
+      <c r="E189" s="29"/>
     </row>
     <row r="190" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A190" s="17" t="s">
@@ -5296,7 +5296,7 @@
       <c r="C190" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="E190" s="27"/>
+      <c r="E190" s="29"/>
     </row>
     <row r="191" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A191" s="17" t="s">
@@ -5308,7 +5308,7 @@
       <c r="C191" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="E191" s="27"/>
+      <c r="E191" s="29"/>
     </row>
     <row r="192" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="17" t="s">
@@ -5320,7 +5320,7 @@
       <c r="C192" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="E192" s="26" t="s">
+      <c r="E192" s="28" t="s">
         <v>699</v>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       <c r="C193" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="E193" s="27"/>
+      <c r="E193" s="29"/>
     </row>
     <row r="194" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A194" s="17" t="s">
@@ -5346,7 +5346,7 @@
       <c r="C194" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="E194" s="27"/>
+      <c r="E194" s="29"/>
     </row>
     <row r="195" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A195" s="17" t="s">
@@ -5358,7 +5358,7 @@
       <c r="C195" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="E195" s="27"/>
+      <c r="E195" s="29"/>
     </row>
     <row r="196" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A196" s="17" t="s">
@@ -5370,7 +5370,7 @@
       <c r="C196" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E196" s="27"/>
+      <c r="E196" s="29"/>
     </row>
     <row r="197" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A197" s="17" t="s">
@@ -5382,7 +5382,7 @@
       <c r="C197" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="E197" s="27"/>
+      <c r="E197" s="29"/>
     </row>
     <row r="198" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A198" s="17" t="s">
@@ -5394,7 +5394,7 @@
       <c r="C198" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="E198" s="27"/>
+      <c r="E198" s="29"/>
     </row>
     <row r="199" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A199" s="17" t="s">
@@ -5406,7 +5406,7 @@
       <c r="C199" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="E199" s="27"/>
+      <c r="E199" s="29"/>
     </row>
     <row r="200" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A200" s="17" t="s">
@@ -5418,7 +5418,7 @@
       <c r="C200" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E200" s="27"/>
+      <c r="E200" s="29"/>
     </row>
     <row r="201" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A201" s="17" t="s">
@@ -5430,7 +5430,7 @@
       <c r="C201" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E201" s="27"/>
+      <c r="E201" s="29"/>
     </row>
     <row r="202" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A202" s="17" t="s">
@@ -5442,7 +5442,7 @@
       <c r="C202" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E202" s="27"/>
+      <c r="E202" s="29"/>
     </row>
     <row r="203" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A203" s="17" t="s">
@@ -5454,7 +5454,7 @@
       <c r="C203" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="E203" s="27"/>
+      <c r="E203" s="29"/>
     </row>
     <row r="204" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A204" s="17" t="s">
@@ -5466,7 +5466,7 @@
       <c r="C204" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E204" s="27"/>
+      <c r="E204" s="29"/>
     </row>
     <row r="205" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A205" s="17" t="s">
@@ -5478,10 +5478,16 @@
       <c r="C205" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="E205" s="27"/>
+      <c r="E205" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E19:E31"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="E45:E58"/>
     <mergeCell ref="E149:E163"/>
     <mergeCell ref="E164:E178"/>
     <mergeCell ref="E179:E191"/>
@@ -5492,12 +5498,6 @@
     <mergeCell ref="E111:E122"/>
     <mergeCell ref="E123:E135"/>
     <mergeCell ref="E136:E148"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="E19:E31"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="E45:E58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/答辩/2014答辩分组名单(修正版).xlsx
+++ b/答辩/2014答辩分组名单(修正版).xlsx
@@ -2637,6 +2637,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2646,14 +2654,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2961,7 +2961,7 @@
   <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3107,7 +3107,7 @@
       <c r="C11" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="30" t="s">
         <v>690</v>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
         <v>246</v>
       </c>
       <c r="D19" s="23"/>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="31" t="s">
         <v>704</v>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
         <v>245</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="35"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
@@ -3234,7 +3234,7 @@
         <v>270</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="35"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
@@ -3247,7 +3247,7 @@
         <v>270</v>
       </c>
       <c r="D22" s="23"/>
-      <c r="E22" s="35"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
@@ -3260,7 +3260,7 @@
         <v>294</v>
       </c>
       <c r="D23" s="23"/>
-      <c r="E23" s="35"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
@@ -3273,7 +3273,7 @@
         <v>251</v>
       </c>
       <c r="D24" s="23"/>
-      <c r="E24" s="35"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
@@ -3286,7 +3286,7 @@
         <v>251</v>
       </c>
       <c r="D25" s="23"/>
-      <c r="E25" s="35"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
@@ -3299,7 +3299,7 @@
         <v>292</v>
       </c>
       <c r="D26" s="23"/>
-      <c r="E26" s="35"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
@@ -3312,7 +3312,7 @@
         <v>296</v>
       </c>
       <c r="D27" s="23"/>
-      <c r="E27" s="35"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
@@ -3325,7 +3325,7 @@
         <v>296</v>
       </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="35"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
@@ -3338,7 +3338,7 @@
         <v>259</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="35"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
@@ -3351,7 +3351,7 @@
         <v>259</v>
       </c>
       <c r="D30" s="23"/>
-      <c r="E30" s="35"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
@@ -3364,7 +3364,7 @@
         <v>259</v>
       </c>
       <c r="D31" s="23"/>
-      <c r="E31" s="36"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
@@ -3862,7 +3862,7 @@
       <c r="C72" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="34" t="s">
         <v>700</v>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       <c r="C73" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E73" s="31"/>
+      <c r="E73" s="35"/>
     </row>
     <row r="74" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
@@ -3888,7 +3888,7 @@
       <c r="C74" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="31"/>
+      <c r="E74" s="35"/>
     </row>
     <row r="75" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
@@ -3900,7 +3900,7 @@
       <c r="C75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="31"/>
+      <c r="E75" s="35"/>
     </row>
     <row r="76" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
@@ -3912,7 +3912,7 @@
       <c r="C76" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E76" s="31"/>
+      <c r="E76" s="35"/>
     </row>
     <row r="77" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
@@ -3924,7 +3924,7 @@
       <c r="C77" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E77" s="31"/>
+      <c r="E77" s="35"/>
     </row>
     <row r="78" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
@@ -3936,7 +3936,7 @@
       <c r="C78" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E78" s="31"/>
+      <c r="E78" s="35"/>
     </row>
     <row r="79" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
@@ -3948,7 +3948,7 @@
       <c r="C79" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E79" s="31"/>
+      <c r="E79" s="35"/>
     </row>
     <row r="80" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
@@ -3960,7 +3960,7 @@
       <c r="C80" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E80" s="31"/>
+      <c r="E80" s="35"/>
     </row>
     <row r="81" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
@@ -3972,7 +3972,7 @@
       <c r="C81" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E81" s="31"/>
+      <c r="E81" s="35"/>
     </row>
     <row r="82" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
@@ -3984,7 +3984,7 @@
       <c r="C82" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="31"/>
+      <c r="E82" s="35"/>
     </row>
     <row r="83" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
@@ -3996,7 +3996,7 @@
       <c r="C83" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E83" s="31"/>
+      <c r="E83" s="35"/>
     </row>
     <row r="84" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
@@ -4008,7 +4008,7 @@
       <c r="C84" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E84" s="32"/>
+      <c r="E84" s="36"/>
     </row>
     <row r="85" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
@@ -4190,7 +4190,7 @@
       <c r="C99" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="34" t="s">
         <v>694</v>
       </c>
     </row>
@@ -4204,7 +4204,7 @@
       <c r="C100" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E100" s="31"/>
+      <c r="E100" s="35"/>
     </row>
     <row r="101" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
@@ -4216,7 +4216,7 @@
       <c r="C101" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E101" s="31"/>
+      <c r="E101" s="35"/>
     </row>
     <row r="102" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
@@ -4228,7 +4228,7 @@
       <c r="C102" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E102" s="31"/>
+      <c r="E102" s="35"/>
     </row>
     <row r="103" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
@@ -4240,7 +4240,7 @@
       <c r="C103" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E103" s="31"/>
+      <c r="E103" s="35"/>
     </row>
     <row r="104" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
@@ -4252,7 +4252,7 @@
       <c r="C104" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E104" s="31"/>
+      <c r="E104" s="35"/>
     </row>
     <row r="105" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
@@ -4264,7 +4264,7 @@
       <c r="C105" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E105" s="31"/>
+      <c r="E105" s="35"/>
     </row>
     <row r="106" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
@@ -4276,7 +4276,7 @@
       <c r="C106" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E106" s="31"/>
+      <c r="E106" s="35"/>
     </row>
     <row r="107" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
@@ -4288,7 +4288,7 @@
       <c r="C107" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E107" s="31"/>
+      <c r="E107" s="35"/>
     </row>
     <row r="108" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A108" s="17" t="s">
@@ -4300,7 +4300,7 @@
       <c r="C108" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E108" s="31"/>
+      <c r="E108" s="35"/>
     </row>
     <row r="109" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A109" s="17" t="s">
@@ -4312,7 +4312,7 @@
       <c r="C109" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E109" s="31"/>
+      <c r="E109" s="35"/>
     </row>
     <row r="110" spans="1:5" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A110" s="17" t="s">
@@ -4324,7 +4324,7 @@
       <c r="C110" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E110" s="32"/>
+      <c r="E110" s="36"/>
     </row>
     <row r="111" spans="1:5" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="17" t="s">
@@ -5482,12 +5482,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="E19:E31"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="E45:E58"/>
     <mergeCell ref="E149:E163"/>
     <mergeCell ref="E164:E178"/>
     <mergeCell ref="E179:E191"/>
@@ -5498,6 +5492,12 @@
     <mergeCell ref="E111:E122"/>
     <mergeCell ref="E123:E135"/>
     <mergeCell ref="E136:E148"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E19:E31"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="E45:E58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
